--- a/模型汇总.xlsx
+++ b/模型汇总.xlsx
@@ -2104,7 +2104,7 @@
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelCol="4"/>

--- a/模型汇总.xlsx
+++ b/模型汇总.xlsx
@@ -5,22 +5,24 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13650" tabRatio="993"/>
+    <workbookView windowWidth="14347" windowHeight="6165" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="1" r:id="rId1"/>
-    <sheet name="CNN_A00 (CNN-w2v)" sheetId="2" r:id="rId2"/>
-    <sheet name="CNN_B00 (DCNN)" sheetId="3" r:id="rId3"/>
-    <sheet name="CNN_C00 (seq or bow-CNN)" sheetId="4" r:id="rId4"/>
-    <sheet name="CNN_D00 (Semantic-CNN)" sheetId="5" r:id="rId5"/>
-    <sheet name="CNN_E00 (MVCNN)" sheetId="6" r:id="rId6"/>
+    <sheet name="A00 (CNN-w2v)" sheetId="2" r:id="rId2"/>
+    <sheet name="B00 (DCNN)" sheetId="3" r:id="rId3"/>
+    <sheet name="C00 (seq or bow-CNN)" sheetId="4" r:id="rId4"/>
+    <sheet name="D00 (Semantic-CNN)" sheetId="5" r:id="rId5"/>
+    <sheet name="E00 (MVCNN)" sheetId="6" r:id="rId6"/>
+    <sheet name="F00 (MGNC-CNN)" sheetId="7" r:id="rId7"/>
+    <sheet name="Lee, NAACL2016" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>模型汇总</t>
   </si>
@@ -34,10 +36,10 @@
     <t>DESCIPTION</t>
   </si>
   <si>
-    <t>大类</t>
-  </si>
-  <si>
-    <t>小类</t>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>类别</t>
   </si>
   <si>
     <t>缩写</t>
@@ -46,109 +48,136 @@
     <t>全称</t>
   </si>
   <si>
-    <t>CNN_A00</t>
+    <t>Kim, EMNLP 2014</t>
+  </si>
+  <si>
+    <t>Kim. Convolutional Neural-Networks for Sentence Classification. EMNLP 2014</t>
+  </si>
+  <si>
+    <t>CNN(rand)</t>
+  </si>
+  <si>
+    <t>CNN(static-w2v)</t>
+  </si>
+  <si>
+    <t>CNN(non-static-w2v)</t>
+  </si>
+  <si>
+    <t>CNN(multichannel)</t>
+  </si>
+  <si>
+    <t>B00</t>
+  </si>
+  <si>
+    <t>CNN_B10</t>
+  </si>
+  <si>
+    <t>DCNN</t>
+  </si>
+  <si>
+    <t>C00</t>
+  </si>
+  <si>
+    <t>CNN_C10</t>
+  </si>
+  <si>
+    <t>seq-CNN</t>
+  </si>
+  <si>
+    <t>CNN_C20</t>
+  </si>
+  <si>
+    <t>bow-CNN</t>
+  </si>
+  <si>
+    <t>D00</t>
+  </si>
+  <si>
+    <t>CNN_D10</t>
+  </si>
+  <si>
+    <t>Semantic-CNN</t>
+  </si>
+  <si>
+    <t>E00</t>
+  </si>
+  <si>
+    <t>CNN_E10</t>
+  </si>
+  <si>
+    <t>MVCNN</t>
+  </si>
+  <si>
+    <t>F00</t>
+  </si>
+  <si>
+    <t>CNN_F10</t>
+  </si>
+  <si>
+    <t>MGNC-CNN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>CNN_G10</t>
+  </si>
+  <si>
+    <t>DSCNN</t>
+  </si>
+  <si>
+    <t>CNN_G20</t>
+  </si>
+  <si>
+    <t>DSCNN-Pretrain</t>
+  </si>
+  <si>
+    <t>Lee, NAACL2016</t>
+  </si>
+  <si>
+    <t>Lee, et al.. Sequential Short-Text Classification with Recurrent and Convolutional Neural Networks. NAACL 2016.</t>
+  </si>
+  <si>
+    <t>SSTC-RNN</t>
+  </si>
+  <si>
+    <t>SSTC-CNN</t>
+  </si>
+  <si>
+    <t>CNN_A00 (CNN-w2v)类模型</t>
+  </si>
+  <si>
+    <t>出处</t>
+  </si>
+  <si>
+    <t>作者</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>Yoon Kim, EMNLP 2014</t>
+  </si>
+  <si>
+    <t>Convolutional Neural-Networks for Sentence Classification</t>
+  </si>
+  <si>
+    <t>模型图</t>
+  </si>
+  <si>
+    <t>重现</t>
   </si>
   <si>
     <t>CNN_A10</t>
   </si>
   <si>
-    <t>CNN(rand)</t>
-  </si>
-  <si>
     <t>CNN_A20</t>
   </si>
   <si>
-    <t>CNN(static-w2v)</t>
-  </si>
-  <si>
     <t>CNN_A30</t>
   </si>
   <si>
-    <t>CNN(non-static-w2v)</t>
-  </si>
-  <si>
     <t>CNN_A40</t>
-  </si>
-  <si>
-    <t>CNN(multichannel)</t>
-  </si>
-  <si>
-    <t>CNN_B00</t>
-  </si>
-  <si>
-    <t>CNN_B10</t>
-  </si>
-  <si>
-    <t>DCNN</t>
-  </si>
-  <si>
-    <t>CNN_C00</t>
-  </si>
-  <si>
-    <t>CNN_C10</t>
-  </si>
-  <si>
-    <t>seq-CNN</t>
-  </si>
-  <si>
-    <t>CNN_C20</t>
-  </si>
-  <si>
-    <t>bow-CNN</t>
-  </si>
-  <si>
-    <t>CNN_D00</t>
-  </si>
-  <si>
-    <t>CNN_D10</t>
-  </si>
-  <si>
-    <t>Semantic-CNN</t>
-  </si>
-  <si>
-    <t>CNN_E00</t>
-  </si>
-  <si>
-    <t>CNN_E10</t>
-  </si>
-  <si>
-    <t>MVCNN</t>
-  </si>
-  <si>
-    <t>CNN_F00</t>
-  </si>
-  <si>
-    <t>CNN_F10</t>
-  </si>
-  <si>
-    <t>MGNC-CNN</t>
-  </si>
-  <si>
-    <t>CNN_A00 (CNN-w2v)类模型</t>
-  </si>
-  <si>
-    <t>出处</t>
-  </si>
-  <si>
-    <t>作者</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>MR</t>
-  </si>
-  <si>
-    <t>Yoon Kim, EMNLP 2014</t>
-  </si>
-  <si>
-    <t>Convolutional Neural-Networks for Sentence Classification</t>
-  </si>
-  <si>
-    <t>模型图</t>
-  </si>
-  <si>
-    <t>重现</t>
   </si>
   <si>
     <t>Figure 1</t>
@@ -309,12 +338,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -365,22 +394,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,8 +442,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,21 +455,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -437,6 +472,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -444,9 +502,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,33 +516,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -497,14 +540,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
@@ -526,31 +561,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,156 +729,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="37">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -769,44 +804,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color theme="5"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color theme="5"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
         <color theme="5"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="5"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="5"/>
-      </top>
-      <bottom style="medium">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="5"/>
-      </left>
-      <right style="medium">
-        <color theme="5"/>
-      </right>
-      <top style="medium">
-        <color theme="5"/>
-      </top>
-      <bottom style="medium">
-        <color theme="5"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -834,19 +856,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="thin">
+        <color theme="5"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="5"/>
-      </left>
-      <right style="medium">
+      <right style="thin">
         <color theme="5"/>
       </right>
       <top/>
@@ -854,19 +867,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="5"/>
-      </left>
-      <right style="medium">
-        <color theme="5"/>
-      </right>
-      <top style="dashDot">
-        <color theme="5"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color theme="5"/>
@@ -887,27 +887,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="thin">
+        <color theme="5"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="5"/>
-      </left>
-      <right style="medium">
-        <color theme="5"/>
-      </right>
-      <top style="dashDot">
-        <color theme="5"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color theme="5"/>
       </bottom>
       <diagonal/>
@@ -957,74 +944,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="thin">
         <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="5"/>
-      </left>
-      <right style="medium">
-        <color theme="5"/>
-      </right>
-      <top style="dashDot">
-        <color theme="5"/>
-      </top>
-      <bottom style="dashDot">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom style="thin">
         <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color theme="5"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="5"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="5"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="5"/>
-      </left>
-      <right style="medium">
-        <color theme="5"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="5"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="5"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1034,6 +962,106 @@
       <top/>
       <bottom style="medium">
         <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5"/>
+      </left>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top style="medium">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5"/>
+      </left>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5"/>
+      </left>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5"/>
+      </left>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top style="medium">
+        <color theme="5"/>
+      </top>
+      <bottom style="medium">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1055,24 +1083,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1092,21 +1107,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1115,167 +1115,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -1303,7 +1286,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1318,32 +1301,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="40" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="40" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="40" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1351,8 +1340,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1361,22 +1353,22 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1384,120 +1376,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
     <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
-    <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+    <cellStyle name="常规" xfId="5"/>
+    <cellStyle name="40% - Accent5" xfId="6" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="7" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="9" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="10" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="11" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="14" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="15" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="16" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="17" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="18" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="21" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="22" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="23" builtinId="32"/>
+    <cellStyle name="Bad" xfId="24" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="25" builtinId="42"/>
+    <cellStyle name="Total" xfId="26" builtinId="25"/>
+    <cellStyle name="Output" xfId="27" builtinId="21"/>
+    <cellStyle name="Currency" xfId="28" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="29" builtinId="38"/>
+    <cellStyle name="Note" xfId="30" builtinId="10"/>
+    <cellStyle name="Input" xfId="31" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="32" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="33" builtinId="22"/>
+    <cellStyle name="Good" xfId="34" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="35" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="36" builtinId="53"/>
+    <cellStyle name="60% - Accent3" xfId="37" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="38" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="39" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50"/>
+    <cellStyle name="Title" xfId="41" builtinId="15"/>
+    <cellStyle name="Warning Text" xfId="42" builtinId="11"/>
+    <cellStyle name="20% - Accent1" xfId="43" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="46" builtinId="17"/>
+    <cellStyle name="Comma" xfId="47" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="48" builtinId="23"/>
+    <cellStyle name="Percent" xfId="49" builtinId="5"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -1531,8 +1512,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="169545" y="2104390"/>
-          <a:ext cx="6680835" cy="3397250"/>
+          <a:off x="169545" y="1944370"/>
+          <a:ext cx="6680835" cy="3119755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1576,7 +1557,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="188595" y="182880"/>
-          <a:ext cx="4374515" cy="8862060"/>
+          <a:ext cx="4374515" cy="8147050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1619,8 +1600,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="187960" y="3440430"/>
-          <a:ext cx="3976370" cy="2256790"/>
+          <a:off x="187960" y="3192145"/>
+          <a:ext cx="3976370" cy="2081530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1658,8 +1639,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="161925" y="5970905"/>
-          <a:ext cx="4246880" cy="5151120"/>
+          <a:off x="161925" y="5518150"/>
+          <a:ext cx="4246880" cy="4742180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1698,7 +1679,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="161925" y="159385"/>
-          <a:ext cx="4803140" cy="3185160"/>
+          <a:ext cx="4803140" cy="2951480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1742,7 +1723,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="161925" y="162560"/>
-          <a:ext cx="3953510" cy="5330190"/>
+          <a:ext cx="3953510" cy="4892675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1785,8 +1766,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="193675" y="224790"/>
-          <a:ext cx="4664710" cy="9211945"/>
+          <a:off x="193675" y="210185"/>
+          <a:ext cx="4664710" cy="8496300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1824,8 +1805,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5348605" y="2001520"/>
-          <a:ext cx="8863330" cy="2645410"/>
+          <a:off x="5348605" y="1870075"/>
+          <a:ext cx="8863330" cy="2426335"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2101,236 +2082,252 @@
   <sheetPr/>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="13" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="19" style="13" customWidth="1"/>
+    <col min="1" max="1" width="19.425" style="14" customWidth="1"/>
+    <col min="2" max="2" width="42.2833333333333" style="14" customWidth="1"/>
+    <col min="3" max="3" width="42.2833333333333" style="13" customWidth="1"/>
     <col min="4" max="4" width="23" style="13" customWidth="1"/>
     <col min="5" max="11" width="73.25" style="13" customWidth="1"/>
     <col min="12" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="14" t="s">
+    <row r="1" ht="31" customHeight="1" spans="1:5">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="31"/>
-    </row>
-    <row r="2" s="13" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" s="13" customFormat="1" ht="25" customHeight="1" spans="1:5">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="55" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="50" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" s="13" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="56"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="44"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="52"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:5">
+      <c r="A6" s="27"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="44"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="29"/>
-      <c r="B6" s="33" t="s">
+      <c r="D6" s="35"/>
+      <c r="E6" s="53"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
+      <c r="A7" s="27"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="D7" s="38"/>
+      <c r="E7" s="53"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:5">
+      <c r="A8" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="30"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37" t="s">
+      <c r="B8" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C8" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="30"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="40" t="s">
+      <c r="D8" s="41"/>
+      <c r="E8" s="52"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:5">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="53"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:5">
+      <c r="A10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="52"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:5">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C11" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="44"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="40"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="30"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:5">
-      <c r="A10" s="43" t="s">
+      <c r="D11" s="35"/>
+      <c r="E11" s="53"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:5">
+      <c r="A12" s="39"/>
+      <c r="B12" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="44"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:5">
-      <c r="A11" s="40"/>
-      <c r="B11" s="47" t="s">
+      <c r="C12" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="D12" s="35"/>
+      <c r="E12" s="54"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:5">
+      <c r="A13" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="30"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:5">
-      <c r="A12" s="40"/>
-      <c r="B12" s="30" t="s">
+      <c r="B13" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C13" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="52"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:5">
-      <c r="A13" s="48" t="s">
+      <c r="D13" s="30"/>
+      <c r="E13" s="53"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:5">
+      <c r="A14" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B14" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C14" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="30"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:5">
-      <c r="A14" s="49" t="s">
+      <c r="D14" s="33"/>
+      <c r="E14" s="52"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:5">
+      <c r="A15" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B15" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C15" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="44"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:5">
-      <c r="A15" s="50" t="s">
+      <c r="D15" s="43"/>
+      <c r="E15" s="55"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:5">
+      <c r="A16" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C16" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="26"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="51"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="30"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="53"/>
     </row>
     <row r="17" customHeight="1" spans="1:5">
-      <c r="A17" s="51"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="44"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="43"/>
+      <c r="E17" s="52"/>
     </row>
     <row r="18" customHeight="1" spans="1:5">
-      <c r="A18" s="48"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="44"/>
+      <c r="A18" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="52"/>
     </row>
     <row r="19" customHeight="1" spans="1:5">
-      <c r="A19" s="40"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="26"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="47"/>
+      <c r="E19" s="55"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="46"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="E2:E3"/>
   </mergeCells>
   <hyperlinks>
@@ -2351,7 +2348,7 @@
       <selection activeCell="A4" sqref="A4:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <cols>
     <col min="1" max="1" width="8.78333333333333"/>
     <col min="2" max="2" width="18.7416666666667"/>
@@ -2364,9 +2361,9 @@
     <col min="14" max="1025" width="8.78333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:13">
+    <row r="1" ht="14.6" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2377,31 +2374,31 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="L1" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" ht="15.75" spans="12:13">
+    <row r="2" ht="14.6" spans="12:13">
       <c r="L2" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="4:13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="13.15" spans="4:13">
       <c r="D3" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E3" s="10"/>
       <c r="L3" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" spans="1:5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" ht="14.6" spans="1:5">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -2409,18 +2406,18 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -2434,10 +2431,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
       </c>
       <c r="D6" s="11">
         <v>0.81</v>
@@ -2448,10 +2445,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="11">
         <v>0.815</v>
@@ -2462,13 +2459,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D8" s="11">
         <v>0.811</v>
@@ -2476,39 +2473,39 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" spans="2:2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" ht="14.6" spans="2:2">
       <c r="B36" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" spans="4:4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" ht="14.6" spans="4:4">
       <c r="D37" s="8" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="4:9">
       <c r="D38" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F38" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G38" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I38" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F39">
         <v>300</v>
@@ -2520,42 +2517,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" ht="13.15" spans="2:4">
       <c r="B40" s="8" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" spans="6:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" ht="14.65" spans="6:6">
       <c r="F41" s="8" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="6" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" spans="2:2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" ht="14.6" spans="2:2">
       <c r="B46" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" spans="5:5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" ht="14.6" spans="5:5">
       <c r="E47" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" ht="42.75" spans="5:5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" ht="39.4" spans="5:5">
       <c r="E48" s="5" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2586,16 +2583,16 @@
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="8" width="8.78333333333333"/>
     <col min="9" max="9" width="31.3833333333333"/>
     <col min="10" max="1025" width="8.78333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:10">
+    <row r="1" ht="14.6" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2603,25 +2600,25 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="I1" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" ht="15.75" spans="1:10">
+    <row r="2" ht="14.6" spans="1:10">
       <c r="A2" s="7"/>
       <c r="I2" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" spans="9:10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="14.65" spans="9:10">
       <c r="I3" s="8" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2651,7 +2648,7 @@
       <selection activeCell="L1" sqref="L1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="11" width="9.10833333333333"/>
     <col min="12" max="12" width="30.2083333333333"/>
@@ -2659,9 +2656,9 @@
     <col min="14" max="1025" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:13">
+    <row r="1" ht="14.6" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2672,24 +2669,24 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="L1" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" ht="15.75" spans="12:13">
+    <row r="2" ht="14.6" spans="12:13">
       <c r="L2" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" ht="19.6" customHeight="1" spans="12:13">
       <c r="L3" s="6" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2719,7 +2716,7 @@
       <selection activeCell="I1" sqref="I1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="8" width="9.10833333333333"/>
     <col min="9" max="9" width="31.3833333333333"/>
@@ -2727,33 +2724,33 @@
     <col min="11" max="1025" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:10">
+    <row r="1" ht="14.6" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="I1" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" ht="15.75" spans="9:10">
+    <row r="2" ht="14.6" spans="9:10">
       <c r="I2" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="9:10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="13.15" spans="9:10">
       <c r="I3" s="5" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2779,11 +2776,11 @@
   <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="9" width="9.10833333333333"/>
     <col min="10" max="10" width="30.3166666666667"/>
@@ -2791,9 +2788,9 @@
     <col min="12" max="1025" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:11">
+    <row r="1" ht="14.6" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2802,24 +2799,24 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="J1" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" ht="15.75" spans="10:11">
+    <row r="2" ht="14.6" spans="10:11">
       <c r="J2" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" ht="18.85" customHeight="1" spans="10:11">
       <c r="J3" s="5" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2838,4 +2835,85 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="9" width="9.10833333333333"/>
+    <col min="10" max="10" width="30.3166666666667"/>
+    <col min="11" max="11" width="69.8416666666667"/>
+    <col min="12" max="1025" width="9.10833333333333"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.6" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="J1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" ht="14.6" spans="10:11">
+      <c r="J2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="18.85" customHeight="1" spans="10:11">
+      <c r="J3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K3" r:id="rId1" display="Multichannel Variable-Size Convolution for Sentence Classification"/>
+  </hyperlinks>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.96666666666667" defaultRowHeight="13.1"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/模型汇总.xlsx
+++ b/模型汇总.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="14347" windowHeight="6165" tabRatio="993"/>
+    <workbookView windowWidth="28695" windowHeight="13650" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="1" r:id="rId1"/>
-    <sheet name="A00 (CNN-w2v)" sheetId="2" r:id="rId2"/>
-    <sheet name="B00 (DCNN)" sheetId="3" r:id="rId3"/>
-    <sheet name="C00 (seq or bow-CNN)" sheetId="4" r:id="rId4"/>
-    <sheet name="D00 (Semantic-CNN)" sheetId="5" r:id="rId5"/>
-    <sheet name="E00 (MVCNN)" sheetId="6" r:id="rId6"/>
-    <sheet name="F00 (MGNC-CNN)" sheetId="7" r:id="rId7"/>
-    <sheet name="Lee, NAACL2016" sheetId="8" r:id="rId8"/>
+    <sheet name="Kim, EMNLP 2014" sheetId="2" r:id="rId2"/>
+    <sheet name="Kalchbrenner, ACL 2014" sheetId="3" r:id="rId3"/>
+    <sheet name="Johnson, NAACL 2015" sheetId="4" r:id="rId4"/>
+    <sheet name="Wang, ACL 2015" sheetId="5" r:id="rId5"/>
+    <sheet name="Yin, CoNLL 2015" sheetId="6" r:id="rId6"/>
+    <sheet name="Zhang, NAACL 2015" sheetId="7" r:id="rId7"/>
+    <sheet name="Zhang, NAACL 2016" sheetId="8" r:id="rId8"/>
+    <sheet name="Lee, NAACL2016" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -36,12 +37,12 @@
     <t>DESCIPTION</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>paper</t>
   </si>
   <si>
-    <t>类别</t>
-  </si>
-  <si>
     <t>缩写</t>
   </si>
   <si>
@@ -66,67 +67,61 @@
     <t>CNN(multichannel)</t>
   </si>
   <si>
-    <t>B00</t>
-  </si>
-  <si>
-    <t>CNN_B10</t>
+    <t>Kalchbrenner, ACL 2014</t>
+  </si>
+  <si>
+    <t>Nal Kalchbrenner, et al.. A Convolutional Neural Network for Modelling Sentences. ACL 2014.</t>
   </si>
   <si>
     <t>DCNN</t>
   </si>
   <si>
-    <t>C00</t>
-  </si>
-  <si>
-    <t>CNN_C10</t>
+    <t>Johnson, NAACL 2015</t>
+  </si>
+  <si>
+    <t>Rie Johnson, et al.. Effective Use of Word Order for Text Categorization with Convolutional Neural Networks. NAACL 2015.</t>
   </si>
   <si>
     <t>seq-CNN</t>
   </si>
   <si>
-    <t>CNN_C20</t>
-  </si>
-  <si>
     <t>bow-CNN</t>
   </si>
   <si>
-    <t>D00</t>
-  </si>
-  <si>
-    <t>CNN_D10</t>
+    <t>Wang, ACL 2015</t>
+  </si>
+  <si>
+    <t>Peng Wang, et al.. Semantic Clustering and Convolutional Neural Network for Short Text Categorization. ACL 2015</t>
   </si>
   <si>
     <t>Semantic-CNN</t>
   </si>
   <si>
-    <t>E00</t>
-  </si>
-  <si>
-    <t>CNN_E10</t>
+    <t>Yin, CoNLL 2015</t>
+  </si>
+  <si>
+    <t>Wenpeng Yin, et al.. Multichannel Variable-Size Convolution for Sentence Classification. CoNLL 2015.</t>
   </si>
   <si>
     <t>MVCNN</t>
   </si>
   <si>
-    <t>F00</t>
-  </si>
-  <si>
-    <t>CNN_F10</t>
+    <t>Zhang, NAACL 2015</t>
+  </si>
+  <si>
+    <t>Ye Zhang, et al.. MGNC-CNN:A Simple Approach to Exploiting Multiple Word Embeddings for Sentence Classification. NAACL 2015.</t>
   </si>
   <si>
     <t>MGNC-CNN</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>CNN_G10</t>
+    <t>Zhang, NAACL 2016</t>
+  </si>
+  <si>
+    <t>Rui Zhang, et al. Dependency Sensitive Convolutional Neural Networks for Modeling Sentences and Documents. NAACL 2016</t>
   </si>
   <si>
     <t>DSCNN</t>
-  </si>
-  <si>
-    <t>CNN_G20</t>
   </si>
   <si>
     <t>DSCNN-Pretrain</t>
@@ -324,13 +319,19 @@
     <t>Peng Wang, et al..ACL 2015</t>
   </si>
   <si>
-    <t>Semantic-Clustering-and-Convolutional-Neural-Network-for-Short-Text-Categorization</t>
-  </si>
-  <si>
-    <t>Wenpeng Yin, et al. CLL 2015</t>
+    <t>Semantic Clustering and Convolutional Neural Network for Short Text Categorization</t>
+  </si>
+  <si>
+    <t>Wenpeng Yin, et al. CoNLL 2015</t>
   </si>
   <si>
     <t>Multichannel Variable-Size Convolution for Sentence Classification</t>
+  </si>
+  <si>
+    <t>Ye Zhang, et al.. NAACL 2015.</t>
+  </si>
+  <si>
+    <t>MGNC-CNN:A Simple Approach to Exploiting Multiple Word Embeddings for Sentence Classification</t>
   </si>
 </sst>
 </file>
@@ -338,12 +339,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -363,6 +364,22 @@
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -394,10 +411,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -408,6 +448,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -415,30 +467,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -466,15 +499,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,29 +529,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,11 +550,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -555,193 +572,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,6 +769,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFC000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFC000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFC000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFC000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -996,24 +1028,26 @@
       <right style="medium">
         <color theme="5"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="5"/>
-      </left>
-      <right style="medium">
-        <color theme="5"/>
-      </right>
       <top style="medium">
         <color theme="5"/>
       </top>
       <bottom style="medium">
         <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1023,6 +1057,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1044,9 +1102,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1065,200 +1134,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -1277,16 +1296,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="44" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1295,7 +1320,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1304,127 +1329,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="41" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="41" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="44" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1512,8 +1537,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="169545" y="1944370"/>
-          <a:ext cx="6680835" cy="3119755"/>
+          <a:off x="169545" y="2104390"/>
+          <a:ext cx="6680835" cy="3397250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1557,7 +1582,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="188595" y="182880"/>
-          <a:ext cx="4374515" cy="8147050"/>
+          <a:ext cx="4374515" cy="8862060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1600,8 +1625,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="187960" y="3192145"/>
-          <a:ext cx="3976370" cy="2081530"/>
+          <a:off x="187960" y="3440430"/>
+          <a:ext cx="3976370" cy="2256790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1639,8 +1664,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="161925" y="5518150"/>
-          <a:ext cx="4246880" cy="4742180"/>
+          <a:off x="161925" y="5970905"/>
+          <a:ext cx="4246880" cy="5151120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1679,7 +1704,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="161925" y="159385"/>
-          <a:ext cx="4803140" cy="2951480"/>
+          <a:ext cx="4803140" cy="3185160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1723,7 +1748,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="161925" y="162560"/>
-          <a:ext cx="3953510" cy="4892675"/>
+          <a:ext cx="3953510" cy="5330190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1766,8 +1791,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="193675" y="210185"/>
-          <a:ext cx="4664710" cy="8496300"/>
+          <a:off x="193675" y="224790"/>
+          <a:ext cx="4664710" cy="9211945"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1805,8 +1830,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5348605" y="1870075"/>
-          <a:ext cx="8863330" cy="2426335"/>
+          <a:off x="5348605" y="2001520"/>
+          <a:ext cx="8863330" cy="2645410"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2082,256 +2107,259 @@
   <sheetPr/>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.425" style="14" customWidth="1"/>
-    <col min="2" max="2" width="42.2833333333333" style="14" customWidth="1"/>
-    <col min="3" max="3" width="42.2833333333333" style="13" customWidth="1"/>
-    <col min="4" max="4" width="23" style="13" customWidth="1"/>
-    <col min="5" max="11" width="73.25" style="13" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="19.425" style="16" customWidth="1"/>
+    <col min="2" max="2" width="42.2833333333333" style="16" customWidth="1"/>
+    <col min="3" max="3" width="26" style="15" customWidth="1"/>
+    <col min="4" max="4" width="39" style="15" customWidth="1"/>
+    <col min="5" max="11" width="73.25" style="15" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1" spans="1:5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="32"/>
-    </row>
-    <row r="2" s="13" customFormat="1" ht="25" customHeight="1" spans="1:5">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="34"/>
+    </row>
+    <row r="2" s="15" customFormat="1" ht="25" customHeight="1" spans="1:5">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="53" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="13" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A3" s="23" t="s">
+    <row r="3" s="15" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="51"/>
+      <c r="E3" s="54"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="52"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="55"/>
     </row>
     <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="27"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="52"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="55"/>
     </row>
     <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="27"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="34" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="53"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="55"/>
     </row>
     <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="27"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="53"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="55"/>
     </row>
     <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="52"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="55"/>
     </row>
     <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="53"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="55"/>
     </row>
     <row r="10" customHeight="1" spans="1:5">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="52"/>
+      <c r="B10" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="55"/>
     </row>
     <row r="11" customHeight="1" spans="1:5">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="53"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="55"/>
     </row>
     <row r="12" customHeight="1" spans="1:5">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="34" t="s">
+      <c r="A12" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="54"/>
+      <c r="B12" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="55"/>
     </row>
     <row r="13" customHeight="1" spans="1:5">
-      <c r="A13" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="29" t="s">
+      <c r="A13" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="53"/>
+      <c r="B13" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="55"/>
     </row>
     <row r="14" customHeight="1" spans="1:5">
-      <c r="A14" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="29" t="s">
+      <c r="A14" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="52"/>
+      <c r="B14" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="47"/>
+      <c r="E14" s="56"/>
     </row>
     <row r="15" customHeight="1" spans="1:5">
-      <c r="A15" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="29" t="s">
+      <c r="A15" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="55"/>
+      <c r="B15" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="47"/>
+      <c r="E15" s="57"/>
     </row>
     <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="42" t="s">
+      <c r="A16" s="29"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="53"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="55"/>
     </row>
     <row r="17" customHeight="1" spans="1:5">
-      <c r="A17" s="39"/>
-      <c r="B17" s="44" t="s">
+      <c r="A17" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="B17" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="52"/>
+      <c r="C17" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="55"/>
     </row>
     <row r="18" customHeight="1" spans="1:5">
-      <c r="A18" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="46" t="s">
+      <c r="A18" s="29"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="52"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:5">
-      <c r="A19" s="39"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="55"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="48"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="33"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="56"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:3">
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="35"/>
+    </row>
+    <row r="20" customHeight="1" spans="2:2">
+      <c r="B20" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="E2:E3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C8" location="'CNN_B00 (DCNN)'!A1" display="DCNN"/>
+    <hyperlink ref="A8:A9" location="'Kalchbrenner, ACL 2014'!A1" display="Kalchbrenner, ACL 2014"/>
+    <hyperlink ref="A4:A7" location="'Kim, EMNLP 2014'!A1" display="Kim, EMNLP 2014"/>
+    <hyperlink ref="A10:A11" location="'Johnson, NAACL 2015'!A1" display="Johnson, NAACL 2015"/>
+    <hyperlink ref="A12" location="'Wang, ACL 2015'!A1" display="Wang, ACL 2015"/>
+    <hyperlink ref="A13" location="'Yin, CoNLL 2015'!A1" display="Yin, CoNLL 2015"/>
+    <hyperlink ref="A17:A18" location="'Lee, NAACL2016'!A1" display="Lee, NAACL2016"/>
+    <hyperlink ref="A15:A16" location="'Zhang, NAACL 2016'!A1" display="Zhang, NAACL 2016"/>
+    <hyperlink ref="A14" location="'Zhang, NAACL 2015'!A1" display="Zhang, NAACL 2015"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2348,7 +2376,7 @@
       <selection activeCell="A4" sqref="A4:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.78333333333333"/>
     <col min="2" max="2" width="18.7416666666667"/>
@@ -2361,9 +2389,9 @@
     <col min="14" max="1025" width="8.78333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.6" spans="1:13">
+    <row r="1" ht="15.75" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2374,138 +2402,138 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="L1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" ht="15.75" spans="12:13">
+      <c r="L2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="4:13">
+      <c r="D3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" ht="14.6" spans="12:13">
-      <c r="L2" s="3" t="s">
+      <c r="E3" s="12"/>
+      <c r="L3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" ht="13.15" spans="4:13">
-      <c r="D3" s="10" t="s">
+      <c r="M3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="L3" s="5" t="s">
+    </row>
+    <row r="4" ht="15.75" spans="1:5">
+      <c r="A4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="4" ht="14.6" spans="1:5">
-      <c r="A4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="13">
         <v>0.761</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="13">
         <v>0.762146415342542</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="13">
         <v>0.81</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="14">
         <v>0.810823599243073</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="13">
         <v>0.815</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="13">
         <v>0.817671</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="11">
+        <v>50</v>
+      </c>
+      <c r="D8" s="13">
         <v>0.811</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" spans="2:2">
+      <c r="B36" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" spans="4:4">
+      <c r="D37" s="10" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="36" ht="14.6" spans="2:2">
-      <c r="B36" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" ht="14.6" spans="4:4">
-      <c r="D37" s="8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="38" spans="4:9">
       <c r="D38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" t="s">
         <v>56</v>
       </c>
-      <c r="F38" t="s">
+      <c r="I38" t="s">
         <v>57</v>
-      </c>
-      <c r="G38" t="s">
-        <v>58</v>
-      </c>
-      <c r="I38" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F39">
         <v>300</v>
@@ -2517,42 +2545,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" ht="13.15" spans="2:4">
-      <c r="B40" s="8" t="s">
+    <row r="40" spans="2:4">
+      <c r="B40" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" spans="6:6">
+      <c r="F41" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D40" t="s">
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="9" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="41" ht="14.65" spans="6:6">
-      <c r="F41" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" spans="2:2">
+      <c r="B46" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" spans="5:5">
+      <c r="E47" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" ht="14.6" spans="2:2">
-      <c r="B46" s="8" t="s">
+    <row r="48" ht="42.75" spans="5:5">
+      <c r="E48" s="5" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="47" ht="14.6" spans="5:5">
-      <c r="E47" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" ht="39.4" spans="5:5">
-      <c r="E48" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2583,16 +2611,16 @@
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="8" width="8.78333333333333"/>
     <col min="9" max="9" width="31.3833333333333"/>
     <col min="10" max="1025" width="8.78333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.6" spans="1:10">
+    <row r="1" ht="15.75" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2600,25 +2628,25 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="I1" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" ht="14.6" spans="1:10">
-      <c r="A2" s="7"/>
+    <row r="2" ht="15.75" spans="1:10">
+      <c r="A2" s="8"/>
       <c r="I2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" ht="14.65" spans="9:10">
-      <c r="I3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>72</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="9:10">
+      <c r="I3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2645,10 +2673,10 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M1"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="11" width="9.10833333333333"/>
     <col min="12" max="12" width="30.2083333333333"/>
@@ -2656,37 +2684,37 @@
     <col min="14" max="1025" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.6" spans="1:13">
+    <row r="1" ht="15.75" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
       <c r="L1" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" ht="14.6" spans="12:13">
+    <row r="2" ht="15.75" spans="12:13">
       <c r="L2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" ht="19.6" customHeight="1" spans="12:13">
-      <c r="L3" s="6" t="s">
-        <v>74</v>
+      <c r="L3" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2713,10 +2741,10 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="8" width="9.10833333333333"/>
     <col min="9" max="9" width="31.3833333333333"/>
@@ -2724,33 +2752,33 @@
     <col min="11" max="1025" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.6" spans="1:10">
+    <row r="1" ht="15.75" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="I1" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" ht="14.6" spans="9:10">
+    <row r="2" ht="15.75" spans="9:10">
       <c r="I2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" ht="13.15" spans="9:10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="9:10">
       <c r="I3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2759,7 +2787,7 @@
     <mergeCell ref="I1:J1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId2" display="Semantic-Clustering-and-Convolutional-Neural-Network-for-Short-Text-Categorization"/>
+    <hyperlink ref="J3" r:id="rId2" display="Semantic Clustering and Convolutional Neural Network for Short Text Categorization"/>
   </hyperlinks>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -2777,10 +2805,10 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="9" width="9.10833333333333"/>
     <col min="10" max="10" width="30.3166666666667"/>
@@ -2788,9 +2816,9 @@
     <col min="12" max="1025" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.6" spans="1:11">
+    <row r="1" ht="15.75" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2799,24 +2827,24 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="J1" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" ht="14.6" spans="10:11">
+    <row r="2" ht="15.75" spans="10:11">
       <c r="J2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" ht="18.85" customHeight="1" spans="10:11">
       <c r="J3" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2842,21 +2870,21 @@
   <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="9" width="9.10833333333333"/>
     <col min="10" max="10" width="30.3166666666667"/>
-    <col min="11" max="11" width="69.8416666666667"/>
+    <col min="11" max="11" width="87.75" customWidth="1"/>
     <col min="12" max="1025" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.6" spans="1:11">
+    <row r="1" ht="15.75" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2865,23 +2893,23 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="J1" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" ht="14.6" spans="10:11">
+    <row r="2" ht="15.75" spans="10:11">
       <c r="J2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" ht="18.85" customHeight="1" spans="10:11">
       <c r="J3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2891,7 +2919,7 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" display="Multichannel Variable-Size Convolution for Sentence Classification"/>
+    <hyperlink ref="K3" r:id="rId1" display="MGNC-CNN:A Simple Approach to Exploiting Multiple Word Embeddings for Sentence Classification"/>
   </hyperlinks>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -2911,7 +2939,23 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.96666666666667" defaultRowHeight="13.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.96666666666667" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/模型汇总.xlsx
+++ b/模型汇总.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13650" tabRatio="993"/>
+    <workbookView windowWidth="28695" windowHeight="13650" tabRatio="993" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>模型汇总</t>
   </si>
@@ -332,6 +332,12 @@
   </si>
   <si>
     <t>MGNC-CNN:A Simple Approach to Exploiting Multiple Word Embeddings for Sentence Classification</t>
+  </si>
+  <si>
+    <t>Rui Zhang, et al.. NAACL 2016</t>
+  </si>
+  <si>
+    <t>Dependency Sensitive Convolutional Neural Networks for Modeling Sentences and Documents.</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1283,7 @@
     </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -1427,6 +1433,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1846,6 +1855,97 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>182245</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1553210</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4297045" y="2384425"/>
+          <a:ext cx="3428365" cy="4609465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>313690</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="2413000"/>
+          <a:ext cx="3533140" cy="4580890"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -2107,10 +2207,10 @@
   <sheetPr/>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="4"/>
@@ -2141,7 +2241,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="24"/>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="54" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2158,7 +2258,7 @@
       <c r="D3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="54"/>
+      <c r="E3" s="55"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="29" t="s">
@@ -2171,7 +2271,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="32"/>
-      <c r="E4" s="55"/>
+      <c r="E4" s="56"/>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="29"/>
@@ -2180,7 +2280,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="35"/>
-      <c r="E5" s="55"/>
+      <c r="E5" s="56"/>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="29"/>
@@ -2189,7 +2289,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="37"/>
-      <c r="E6" s="55"/>
+      <c r="E6" s="56"/>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="29"/>
@@ -2198,7 +2298,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="40"/>
-      <c r="E7" s="55"/>
+      <c r="E7" s="56"/>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="29" t="s">
@@ -2211,14 +2311,14 @@
         <v>16</v>
       </c>
       <c r="D8" s="43"/>
-      <c r="E8" s="55"/>
+      <c r="E8" s="56"/>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="29"/>
       <c r="B9" s="44"/>
       <c r="C9" s="34"/>
       <c r="D9" s="35"/>
-      <c r="E9" s="55"/>
+      <c r="E9" s="56"/>
     </row>
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="29" t="s">
@@ -2231,7 +2331,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="37"/>
-      <c r="E10" s="55"/>
+      <c r="E10" s="56"/>
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="29"/>
@@ -2240,7 +2340,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="37"/>
-      <c r="E11" s="55"/>
+      <c r="E11" s="56"/>
     </row>
     <row r="12" customHeight="1" spans="1:5">
       <c r="A12" s="45" t="s">
@@ -2253,7 +2353,7 @@
         <v>23</v>
       </c>
       <c r="D12" s="32"/>
-      <c r="E12" s="55"/>
+      <c r="E12" s="56"/>
     </row>
     <row r="13" customHeight="1" spans="1:5">
       <c r="A13" s="45" t="s">
@@ -2266,7 +2366,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="35"/>
-      <c r="E13" s="55"/>
+      <c r="E13" s="56"/>
     </row>
     <row r="14" customHeight="1" spans="1:5">
       <c r="A14" s="45" t="s">
@@ -2279,10 +2379,10 @@
         <v>29</v>
       </c>
       <c r="D14" s="47"/>
-      <c r="E14" s="56"/>
+      <c r="E14" s="57"/>
     </row>
     <row r="15" customHeight="1" spans="1:5">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="45" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="48" t="s">
@@ -2292,16 +2392,16 @@
         <v>32</v>
       </c>
       <c r="D15" s="47"/>
-      <c r="E15" s="57"/>
+      <c r="E15" s="58"/>
     </row>
     <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="29"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="48"/>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="51" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="47"/>
-      <c r="E16" s="55"/>
+      <c r="E16" s="56"/>
     </row>
     <row r="17" customHeight="1" spans="1:5">
       <c r="A17" s="29" t="s">
@@ -2310,28 +2410,28 @@
       <c r="B17" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="51" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="32"/>
-      <c r="E17" s="55"/>
+      <c r="E17" s="56"/>
     </row>
     <row r="18" customHeight="1" spans="1:5">
       <c r="A18" s="29"/>
       <c r="B18" s="48"/>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="56"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="57"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="52"/>
-      <c r="B19" s="52"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="35"/>
     </row>
     <row r="20" customHeight="1" spans="2:2">
-      <c r="B20" s="52"/>
+      <c r="B20" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2871,7 +2971,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
+      <selection activeCell="K12" sqref="A1:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
@@ -2933,16 +3033,60 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <cols>
+    <col min="10" max="10" width="28" customWidth="1"/>
+    <col min="11" max="11" width="91.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="J1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" ht="15.75" spans="10:11">
+      <c r="J2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="28" customHeight="1" spans="10:11">
+      <c r="J3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/模型汇总.xlsx
+++ b/模型汇总.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13650" tabRatio="993" activeTab="7"/>
+    <workbookView windowWidth="28695" windowHeight="13650" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
   <si>
     <t>模型汇总</t>
   </si>
@@ -166,16 +166,31 @@
     <t>CNN_A10</t>
   </si>
   <si>
+    <t>特色</t>
+  </si>
+  <si>
     <t>CNN_A20</t>
   </si>
   <si>
+    <t>1、Word2vec Pretraining</t>
+  </si>
+  <si>
     <t>CNN_A30</t>
   </si>
   <si>
+    <t>2、multi channels</t>
+  </si>
+  <si>
     <t>CNN_A40</t>
   </si>
   <si>
     <t>Figure 1</t>
+  </si>
+  <si>
+    <t>3、简单：一层卷积层+softmax层</t>
+  </si>
+  <si>
+    <t>不足</t>
   </si>
   <si>
     <t>Embedding Layer</t>
@@ -345,12 +360,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -417,14 +432,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -439,21 +446,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -461,13 +453,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,29 +483,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,15 +505,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,7 +529,42 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,7 +609,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,7 +651,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,7 +729,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,31 +753,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,97 +765,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,16 +1084,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1127,16 +1134,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1145,127 +1152,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1274,16 +1281,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -1407,19 +1414,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1428,16 +1429,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2207,8 +2205,8 @@
   <sheetPr/>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15:A16"/>
     </sheetView>
@@ -2241,7 +2239,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="24"/>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="51" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2258,7 +2256,7 @@
       <c r="D3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="55"/>
+      <c r="E3" s="52"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="29" t="s">
@@ -2271,7 +2269,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="32"/>
-      <c r="E4" s="56"/>
+      <c r="E4" s="53"/>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="29"/>
@@ -2280,7 +2278,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="35"/>
-      <c r="E5" s="56"/>
+      <c r="E5" s="53"/>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="29"/>
@@ -2289,7 +2287,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="37"/>
-      <c r="E6" s="56"/>
+      <c r="E6" s="53"/>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="29"/>
@@ -2298,140 +2296,140 @@
         <v>13</v>
       </c>
       <c r="D7" s="40"/>
-      <c r="E7" s="56"/>
+      <c r="E7" s="53"/>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="56"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="53"/>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="29"/>
-      <c r="B9" s="44"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="34"/>
       <c r="D9" s="35"/>
-      <c r="E9" s="56"/>
+      <c r="E9" s="53"/>
     </row>
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="36" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="37"/>
-      <c r="E10" s="56"/>
+      <c r="E10" s="53"/>
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="29"/>
-      <c r="B11" s="44"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="36" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="37"/>
-      <c r="E11" s="56"/>
+      <c r="E11" s="53"/>
     </row>
     <row r="12" customHeight="1" spans="1:5">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="44" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="32"/>
-      <c r="E12" s="56"/>
+      <c r="E12" s="53"/>
     </row>
     <row r="13" customHeight="1" spans="1:5">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="44" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="35"/>
-      <c r="E13" s="56"/>
+      <c r="E13" s="53"/>
     </row>
     <row r="14" customHeight="1" spans="1:5">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="44" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="57"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="54"/>
     </row>
     <row r="15" customHeight="1" spans="1:5">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="58"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="55"/>
     </row>
     <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="50"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="51" t="s">
+      <c r="A16" s="43"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="56"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="53"/>
     </row>
     <row r="17" customHeight="1" spans="1:5">
       <c r="A17" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="48" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="32"/>
-      <c r="E17" s="56"/>
+      <c r="E17" s="53"/>
     </row>
     <row r="18" customHeight="1" spans="1:5">
       <c r="A18" s="29"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="51" t="s">
+      <c r="B18" s="46"/>
+      <c r="C18" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="57"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="54"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="35"/>
     </row>
     <row r="20" customHeight="1" spans="2:2">
-      <c r="B20" s="53"/>
+      <c r="B20" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2473,7 +2471,7 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B8"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2543,7 +2541,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -2556,10 +2554,13 @@
       <c r="E5" s="13">
         <v>0.762146415342542</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="L5" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -2570,10 +2571,13 @@
       <c r="E6" s="14">
         <v>0.810823599243073</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="L6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -2584,56 +2588,67 @@
       <c r="E7" s="13">
         <v>0.817671</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="L7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D8" s="13">
         <v>0.811</v>
       </c>
+      <c r="L8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="12:12">
+      <c r="L12" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" ht="15.75" spans="2:2">
       <c r="B36" s="10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" ht="15.75" spans="4:4">
       <c r="D37" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="4:9">
       <c r="D38" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G38" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I38" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F39">
         <v>300</v>
@@ -2647,40 +2662,40 @@
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" ht="15.75" spans="6:6">
       <c r="F41" s="10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" ht="15.75" spans="2:2">
       <c r="B46" s="10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" ht="15.75" spans="5:5">
       <c r="E47" s="10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" ht="42.75" spans="5:5">
       <c r="E48" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2720,7 +2735,7 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2743,10 +2758,10 @@
     </row>
     <row r="3" ht="15.75" spans="9:10">
       <c r="I3" s="10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2786,7 +2801,7 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2811,10 +2826,10 @@
     </row>
     <row r="3" ht="19.6" customHeight="1" spans="12:13">
       <c r="L3" s="9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2875,10 +2890,10 @@
     </row>
     <row r="3" spans="9:10">
       <c r="I3" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2941,10 +2956,10 @@
     </row>
     <row r="3" ht="18.85" customHeight="1" spans="10:11">
       <c r="J3" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3007,10 +3022,10 @@
     </row>
     <row r="3" ht="18.85" customHeight="1" spans="10:11">
       <c r="J3" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3035,7 +3050,7 @@
   <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
@@ -3072,10 +3087,10 @@
     </row>
     <row r="3" ht="28" customHeight="1" spans="10:11">
       <c r="J3" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/模型汇总.xlsx
+++ b/模型汇总.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13650" tabRatio="993"/>
+    <workbookView windowWidth="14295" windowHeight="13230" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="Zhang, NAACL 2015" sheetId="7" r:id="rId7"/>
     <sheet name="Zhang, NAACL 2016" sheetId="8" r:id="rId8"/>
     <sheet name="Lee, NAACL2016" sheetId="9" r:id="rId9"/>
+    <sheet name="Tang, EMNLP 2015" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
   <si>
     <t>模型汇总</t>
   </si>
@@ -137,6 +138,18 @@
   </si>
   <si>
     <t>SSTC-CNN</t>
+  </si>
+  <si>
+    <t>Tang, EMNLP 2015</t>
+  </si>
+  <si>
+    <t>Tang, et al.. Document Modeling with Gated Recurrent Neural Network for Sentiment Classification. EMNLP 2015.</t>
+  </si>
+  <si>
+    <t>Conv-GRNN</t>
+  </si>
+  <si>
+    <t>LSTM-GRNN</t>
   </si>
   <si>
     <t>CNN_A00 (CNN-w2v)类模型</t>
@@ -354,18 +367,27 @@
   <si>
     <t>Dependency Sensitive Convolutional Neural Networks for Modeling Sentences and Documents.</t>
   </si>
+  <si>
+    <t>Conv-GRNN/LSTM-GRNN</t>
+  </si>
+  <si>
+    <t>duyu Tang, et al.. EMNLP 2015</t>
+  </si>
+  <si>
+    <t>Document Modeling with Gated Recurrent Neural Network for Sentiment Classification</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -438,6 +460,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -449,6 +479,29 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -466,9 +519,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,6 +534,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -489,9 +549,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,38 +571,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,27 +601,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <charset val="134"/>
@@ -609,7 +639,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,157 +801,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,6 +1100,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1099,16 +1144,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1123,156 +1177,132 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1281,16 +1311,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -1441,7 +1471,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="44" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="44" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1944,6 +1983,54 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1675130</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>75565</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="276225" y="1993900"/>
+          <a:ext cx="9704705" cy="5895340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -2203,12 +2290,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15:A16"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="4"/>
@@ -2239,7 +2326,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="24"/>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="54" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2256,7 +2343,7 @@
       <c r="D3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="52"/>
+      <c r="E3" s="55"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="29" t="s">
@@ -2269,7 +2356,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="32"/>
-      <c r="E4" s="53"/>
+      <c r="E4" s="56"/>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="29"/>
@@ -2278,7 +2365,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="35"/>
-      <c r="E5" s="53"/>
+      <c r="E5" s="56"/>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="29"/>
@@ -2287,7 +2374,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="37"/>
-      <c r="E6" s="53"/>
+      <c r="E6" s="56"/>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="29"/>
@@ -2296,7 +2383,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="40"/>
-      <c r="E7" s="53"/>
+      <c r="E7" s="56"/>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="29" t="s">
@@ -2309,14 +2396,14 @@
         <v>16</v>
       </c>
       <c r="D8" s="42"/>
-      <c r="E8" s="53"/>
+      <c r="E8" s="56"/>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="29"/>
       <c r="B9" s="38"/>
       <c r="C9" s="34"/>
       <c r="D9" s="35"/>
-      <c r="E9" s="53"/>
+      <c r="E9" s="56"/>
     </row>
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="29" t="s">
@@ -2329,7 +2416,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="37"/>
-      <c r="E10" s="53"/>
+      <c r="E10" s="56"/>
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="29"/>
@@ -2338,7 +2425,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="37"/>
-      <c r="E11" s="53"/>
+      <c r="E11" s="56"/>
     </row>
     <row r="12" customHeight="1" spans="1:5">
       <c r="A12" s="43" t="s">
@@ -2351,7 +2438,7 @@
         <v>23</v>
       </c>
       <c r="D12" s="32"/>
-      <c r="E12" s="53"/>
+      <c r="E12" s="56"/>
     </row>
     <row r="13" customHeight="1" spans="1:5">
       <c r="A13" s="43" t="s">
@@ -2364,7 +2451,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="35"/>
-      <c r="E13" s="53"/>
+      <c r="E13" s="56"/>
     </row>
     <row r="14" customHeight="1" spans="1:5">
       <c r="A14" s="43" t="s">
@@ -2377,7 +2464,7 @@
         <v>29</v>
       </c>
       <c r="D14" s="45"/>
-      <c r="E14" s="54"/>
+      <c r="E14" s="57"/>
     </row>
     <row r="15" customHeight="1" spans="1:5">
       <c r="A15" s="43" t="s">
@@ -2390,7 +2477,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="45"/>
-      <c r="E15" s="55"/>
+      <c r="E15" s="58"/>
     </row>
     <row r="16" customHeight="1" spans="1:5">
       <c r="A16" s="43"/>
@@ -2399,7 +2486,7 @@
         <v>33</v>
       </c>
       <c r="D16" s="45"/>
-      <c r="E16" s="53"/>
+      <c r="E16" s="56"/>
     </row>
     <row r="17" customHeight="1" spans="1:5">
       <c r="A17" s="29" t="s">
@@ -2412,7 +2499,7 @@
         <v>36</v>
       </c>
       <c r="D17" s="32"/>
-      <c r="E17" s="53"/>
+      <c r="E17" s="56"/>
     </row>
     <row r="18" customHeight="1" spans="1:5">
       <c r="A18" s="29"/>
@@ -2421,18 +2508,39 @@
         <v>37</v>
       </c>
       <c r="D18" s="49"/>
-      <c r="E18" s="54"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="35"/>
-    </row>
-    <row r="20" customHeight="1" spans="2:2">
-      <c r="B20" s="50"/>
+      <c r="E18" s="57"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:5">
+      <c r="A19" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="45"/>
+      <c r="E19" s="58"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:5">
+      <c r="A20" s="50"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="45"/>
+      <c r="E20" s="56"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:5">
+      <c r="A21" s="53"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -2441,11 +2549,13 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="E2:E3"/>
   </mergeCells>
   <hyperlinks>
@@ -2458,10 +2568,71 @@
     <hyperlink ref="A17:A18" location="'Lee, NAACL2016'!A1" display="Lee, NAACL2016"/>
     <hyperlink ref="A15:A16" location="'Zhang, NAACL 2016'!A1" display="Zhang, NAACL 2016"/>
     <hyperlink ref="A14" location="'Zhang, NAACL 2015'!A1" display="Zhang, NAACL 2015"/>
+    <hyperlink ref="C19" location="'Tang, EMNLP 2015'!A1" display="Conv-GRNN"/>
+    <hyperlink ref="C20" location="'Tang, EMNLP 2015'!A1" display="LSTM-GRNN"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <cols>
+    <col min="10" max="10" width="28" customWidth="1"/>
+    <col min="11" max="11" width="91.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" ht="15.75" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" customFormat="1" ht="15.75" spans="10:11">
+      <c r="J2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="28" customHeight="1" spans="10:11">
+      <c r="J3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2489,7 +2660,7 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2500,13 +2671,13 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="L1" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M1" s="2"/>
     </row>
     <row r="2" ht="15.75" spans="12:13">
       <c r="L2" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>5</v>
@@ -2514,14 +2685,14 @@
     </row>
     <row r="3" spans="4:13">
       <c r="D3" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E3" s="12"/>
       <c r="L3" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:5">
@@ -2532,18 +2703,18 @@
         <v>2</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -2555,12 +2726,12 @@
         <v>0.762146415342542</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -2572,12 +2743,12 @@
         <v>0.810823599243073</v>
       </c>
       <c r="L6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -2589,66 +2760,66 @@
         <v>0.817671</v>
       </c>
       <c r="L7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D8" s="13">
         <v>0.811</v>
       </c>
       <c r="L8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="12:12">
       <c r="L12" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" ht="15.75" spans="2:2">
       <c r="B36" s="10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" ht="15.75" spans="4:4">
       <c r="D37" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="4:9">
       <c r="D38" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G38" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I38" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D39" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F39">
         <v>300</v>
@@ -2662,40 +2833,40 @@
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" ht="15.75" spans="6:6">
       <c r="F41" s="10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" ht="15.75" spans="2:2">
       <c r="B46" s="10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" ht="15.75" spans="5:5">
       <c r="E47" s="10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" ht="42.75" spans="5:5">
       <c r="E48" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2735,7 +2906,7 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2743,14 +2914,14 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="I1" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J1" s="2"/>
     </row>
     <row r="2" ht="15.75" spans="1:10">
       <c r="A2" s="8"/>
       <c r="I2" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>5</v>
@@ -2758,10 +2929,10 @@
     </row>
     <row r="3" ht="15.75" spans="9:10">
       <c r="I3" s="10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2801,7 +2972,7 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2812,13 +2983,13 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="L1" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M1" s="2"/>
     </row>
     <row r="2" ht="15.75" spans="12:13">
       <c r="L2" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>5</v>
@@ -2826,10 +2997,10 @@
     </row>
     <row r="3" ht="19.6" customHeight="1" spans="12:13">
       <c r="L3" s="9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2876,13 +3047,13 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="I1" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J1" s="2"/>
     </row>
     <row r="2" ht="15.75" spans="9:10">
       <c r="I2" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>5</v>
@@ -2890,10 +3061,10 @@
     </row>
     <row r="3" spans="9:10">
       <c r="I3" s="5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2942,13 +3113,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="J1" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K1" s="2"/>
     </row>
     <row r="2" ht="15.75" spans="10:11">
       <c r="J2" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>5</v>
@@ -2956,10 +3127,10 @@
     </row>
     <row r="3" ht="18.85" customHeight="1" spans="10:11">
       <c r="J3" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3008,13 +3179,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="J1" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K1" s="2"/>
     </row>
     <row r="2" ht="15.75" spans="10:11">
       <c r="J2" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>5</v>
@@ -3022,10 +3193,10 @@
     </row>
     <row r="3" ht="18.85" customHeight="1" spans="10:11">
       <c r="J3" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3053,7 +3224,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
@@ -3073,13 +3244,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="J1" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K1" s="2"/>
     </row>
     <row r="2" ht="15.75" spans="10:11">
       <c r="J2" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>5</v>
@@ -3087,10 +3258,10 @@
     </row>
     <row r="3" ht="28" customHeight="1" spans="10:11">
       <c r="J3" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
